--- a/core/utils/data/page_base.xlsx
+++ b/core/utils/data/page_base.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695"/>
+    <workbookView windowWidth="19725" windowHeight="7695" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IntroPage" sheetId="1" r:id="rId1"/>
     <sheet name="Jira" sheetId="2" r:id="rId2"/>
     <sheet name="TerminalX" sheetId="3" r:id="rId3"/>
     <sheet name="ST" sheetId="4" r:id="rId4"/>
+    <sheet name="cupid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -134,6 +135,15 @@
   </si>
   <si>
     <t>//*[@id="__next"]/div[2]/div[2]/div/div[2]/div/div[2]/div[2]/div/div/div</t>
+  </si>
+  <si>
+    <t>sign_in</t>
+  </si>
+  <si>
+    <t>//*[@id="main_content"]/div/div/div[1]/div/a</t>
+  </si>
+  <si>
+    <t>div.login-actions &gt; button:nth-child(1)</t>
   </si>
 </sst>
 </file>
@@ -141,12 +151,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,12 +174,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,8 +209,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,121 +301,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,187 +330,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,20 +520,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,15 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -618,151 +595,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -770,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1298,7 +1295,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1587,7 +1584,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1631,4 +1628,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="56.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="35.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4:C10">
+      <formula1>"ID, NAME, CSS, XPATH"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/core/utils/data/page_base.xlsx
+++ b/core/utils/data/page_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695" activeTab="4"/>
+    <workbookView windowWidth="19725" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="IntroPage" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -35,7 +35,7 @@
     <t>search</t>
   </si>
   <si>
-    <t>a</t>
+    <t>q</t>
   </si>
   <si>
     <t>NAME</t>
@@ -47,6 +47,24 @@
     <t>btnK</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>div.dRYYxd &gt; div.BKRPef &gt; div &gt; span &gt; svg &gt; path</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>row1</t>
+  </si>
+  <si>
+    <t>//*[@id="Alh6id"]/div[1]/div/ul/li[1]</t>
+  </si>
+  <si>
+    <t>XPATH</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
@@ -80,9 +98,6 @@
     <t>//*[@id="log-work"]</t>
   </si>
   <si>
-    <t>XPATH</t>
-  </si>
-  <si>
     <t>time_spent</t>
   </si>
   <si>
@@ -105,9 +120,6 @@
   </si>
   <si>
     <t>div.header-navigation-desktop-container_3l4X &gt; nav &gt; ul &gt; li:nth-child(6)</t>
-  </si>
-  <si>
-    <t>CSS</t>
   </si>
   <si>
     <t>icon</t>
@@ -152,9 +164,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,14 +184,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,25 +230,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,8 +261,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,14 +290,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -280,14 +306,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,20 +326,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -330,181 +342,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,148 +630,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1293,14 +1305,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
+    <col min="2" max="2" width="78.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="43.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1338,6 +1351,28 @@
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1383,32 +1418,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1416,57 +1451,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1512,57 +1547,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1610,13 +1645,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1670,7 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1662,21 +1697,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1684,10 +1719,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1695,13 +1730,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/core/utils/data/page_base.xlsx
+++ b/core/utils/data/page_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695"/>
+    <workbookView windowWidth="19725" windowHeight="7695" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IntroPage" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>div.login-actions &gt; button:nth-child(1)</t>
+  </si>
+  <si>
+    <t>send_code_button</t>
+  </si>
+  <si>
+    <t>div.login-actions &gt; button</t>
   </si>
 </sst>
 </file>
@@ -163,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -213,6 +219,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -268,20 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -297,6 +296,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -306,14 +312,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,13 +348,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,31 +456,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,79 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,31 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +533,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,21 +600,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -630,7 +636,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,127 +657,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1307,8 +1313,8 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1668,13 +1674,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="56.8571428571429" customWidth="1"/>
@@ -1736,6 +1742,17 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/core/utils/data/page_base.xlsx
+++ b/core/utils/data/page_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695"/>
+    <workbookView windowWidth="24225" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="IntroPage" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -65,6 +65,12 @@
     <t>XPATH</t>
   </si>
   <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>//*[@id="rso"]/div[2]/div</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
@@ -141,9 +147,6 @@
   </si>
   <si>
     <t>div.header-logo-wrapper_1Y8r &gt; a</t>
-  </si>
-  <si>
-    <t>table</t>
   </si>
   <si>
     <t>//*[@id="__next"]/div[2]/div[2]/div/div[2]/div/div[2]/div[2]/div/div/div</t>
@@ -163,10 +166,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -183,6 +186,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -190,10 +231,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,78 +271,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,7 +287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,7 +302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,6 +310,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,13 +345,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,163 +501,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,15 +530,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,17 +572,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +592,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,12 +636,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,127 +654,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1305,13 +1308,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="78.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="43.2857142857143" customWidth="1"/>
@@ -1375,9 +1378,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C7:C18">
       <formula1>"ID, NAME, CSS, XPATH, LINK_TEXT, CLASS_NAME"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1418,32 +1432,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1451,21 +1465,21 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1473,21 +1487,21 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1495,13 +1509,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1547,10 +1561,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1558,10 +1572,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1569,10 +1583,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1580,10 +1594,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1591,10 +1605,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1645,10 +1659,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1697,10 +1711,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1708,10 +1722,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1719,10 +1733,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1730,10 +1744,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
